--- a/VS/10-2-23/Data/EURGBP.xlsx
+++ b/VS/10-2-23/Data/EURGBP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17062743-574C-420D-8CE8-ABD979221201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2CD105-93D9-4C2D-98AF-D5AB637F4802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,12 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +452,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="I309" sqref="I309"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283:M283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -12421,40 +12444,40 @@
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="3">
         <v>45156.479166666657</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="4">
         <v>0.85431000000000001</v>
       </c>
-      <c r="D293">
-        <v>2</v>
-      </c>
-      <c r="E293" t="s">
+      <c r="D293" s="4">
+        <v>2</v>
+      </c>
+      <c r="E293" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="4">
         <v>0.85511840000000006</v>
       </c>
-      <c r="G293" s="2">
+      <c r="G293" s="3">
         <v>45156.489583333343</v>
       </c>
-      <c r="H293">
+      <c r="H293" s="4">
         <v>-8.0840000000004242E-4</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="4">
         <v>-197.27546880001029</v>
       </c>
-      <c r="J293">
+      <c r="J293" s="4">
         <v>0.85511840000000006</v>
       </c>
-      <c r="K293">
+      <c r="K293" s="4">
         <v>0.85269319999999993</v>
       </c>
-      <c r="L293">
+      <c r="L293" s="4">
         <v>0.85350159999999997</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12462,7 +12485,7 @@
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="3">
         <v>45160.46875</v>
       </c>
       <c r="C294">
